--- a/biology/Botanique/Lambrusco_grasparossa/Lambrusco_grasparossa.xlsx
+++ b/biology/Botanique/Lambrusco_grasparossa/Lambrusco_grasparossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  lambrusco grasparossa est un cépage italien de raisins noirs et fait partie de la large famille des lambrusco.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Lambrusco grasparossa provient probablement de la région d'Émilie-Romagne. 
 L'ampélographe italien Cosmo distingue 4 sous-variétés : Lambrusco grasparossa a grappolo rado, Lambrusco grasparossa a grappolo serrato, Lambrusco grasparossa a grapspo rosso et Lambrusco grasparossa a grapspo verde.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux, vert blanchâtre.
 Jeunes feuilles aranéeuses, vertes à reflets bronzés.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive : 30-35 jours après le chasselas.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est pyramidale, ailée et lâche. Le cépage est de bonne vigueur et d'une production abondante. 
 Les vins sont de couleur rouge rubis intense. Les vins frais sont légèrement parfumés.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  lambrusco grasparossa est connu sous les noms de lambrusco di Castelvetro, grasparossa.
 </t>
